--- a/ApolloQA/Data/RatingManual/GA/OR00022.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00022.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00022" sheetId="1" r:id="R105d1d7592c041da"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00022" sheetId="1" r:id="R3379e174233441f7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -26,65 +26,10 @@
         <x:v/>
       </x:c>
       <x:c t="str">
-        <x:v>Non Owned Rating Mileage</x:v>
+        <x:v>OR00024.BaseRateFactors</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00022.BaseRateFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00022.PredominantRatingGroupFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00022.InsuranceScoreTierFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00022.BillingType_IsEFT_PaymentPlanFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Driver Rating</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>DR</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -169,17 +114,6 @@
         <x:v>x</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Experience Rating</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>SR.4</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
         <x:v>Renewal Rate Cap</x:v>
       </x:c>
       <x:c t="str">
